--- a/Resources/Permitting_origen.xlsx
+++ b/Resources/Permitting_origen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GonzalodeCáceres\GitHub\MW-Permitting\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204650C-C5F8-4D29-B29E-6C685D24782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF26FC-8519-4678-B371-0675CDDAE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8112388E-1C65-4EDF-AEA7-78C97FBE2DCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{8112388E-1C65-4EDF-AEA7-78C97FBE2DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>894.3</v>
+        <v>877.98</v>
       </c>
       <c r="C2">
-        <v>23.5</v>
+        <v>435.7</v>
       </c>
       <c r="D2">
-        <v>1002.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,13 +497,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>895.3</v>
+        <v>594.52</v>
       </c>
       <c r="C3">
-        <v>24.5</v>
+        <v>64.040000000000006</v>
       </c>
       <c r="D3">
-        <v>1003.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,13 +511,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>896.3</v>
+        <v>1396.45</v>
       </c>
       <c r="C4">
-        <v>25.5</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>1004.4</v>
+        <v>1034.46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,13 +525,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>897.3</v>
+        <v>436.8</v>
       </c>
       <c r="C5">
-        <v>26.5</v>
+        <v>930.6</v>
       </c>
       <c r="D5">
-        <v>1005.4</v>
+        <v>399.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>898.3</v>
+        <v>496.93</v>
       </c>
       <c r="C6">
-        <v>27.5</v>
+        <v>113.9</v>
       </c>
       <c r="D6">
-        <v>1006.4</v>
+        <v>306.85000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>899.3</v>
+        <v>222.7</v>
       </c>
       <c r="C7">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1007.4</v>
+        <v>274.27</v>
       </c>
     </row>
   </sheetData>
